--- a/Results/Sentiwordnet/hasil_lesk_PRICES.xlsx
+++ b/Results/Sentiwordnet/hasil_lesk_PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="211">
   <si>
     <t>id</t>
   </si>
@@ -238,9 +238,6 @@
     <t>CLF#3:29</t>
   </si>
   <si>
-    <t>BG#5:4</t>
-  </si>
-  <si>
     <t>BG#5:7</t>
   </si>
   <si>
@@ -478,9 +475,6 @@
     <t>if it seemed possible to do so while there i would have fought my bill since my dinner portion of my meal was inedible!</t>
   </si>
   <si>
-    <t>i have it a 4 instead of 5 because of the price (just chicken tikka masala - no bread of rice - is $25), which i would expect at a upscale indian restaurant but this place doesn't have an upscale feel.</t>
-  </si>
-  <si>
     <t>but if you're prepared to spend some $ and remember to ask if something they offer is complimentary, then this is the place to go for indian food</t>
   </si>
   <si>
@@ -565,9 +559,6 @@
     <t>like</t>
   </si>
   <si>
-    <t>fabulous</t>
-  </si>
-  <si>
     <t>authentic</t>
   </si>
   <si>
@@ -580,10 +571,13 @@
     <t>bargain</t>
   </si>
   <si>
+    <t>extensive</t>
+  </si>
+  <si>
     <t>reasonably</t>
   </si>
   <si>
-    <t>terrific</t>
+    <t>better</t>
   </si>
   <si>
     <t>recommend</t>
@@ -598,6 +592,9 @@
     <t>incredible</t>
   </si>
   <si>
+    <t>speedy</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
@@ -637,9 +634,6 @@
     <t>inedible</t>
   </si>
   <si>
-    <t>upscale</t>
-  </si>
-  <si>
     <t>complimentary</t>
   </si>
   <si>
@@ -647,9 +641,6 @@
   </si>
   <si>
     <t>wonderful</t>
-  </si>
-  <si>
-    <t>better</t>
   </si>
   <si>
     <t>positive</t>
@@ -1013,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1044,16 +1035,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1064,16 +1055,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1084,16 +1075,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1104,16 +1095,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1124,16 +1115,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1144,16 +1135,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1164,16 +1155,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1184,16 +1175,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1204,16 +1195,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1224,16 +1215,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1244,16 +1235,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1264,16 +1255,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1284,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1304,16 +1295,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1324,16 +1315,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1344,16 +1335,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1364,16 +1355,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1384,16 +1375,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1404,16 +1395,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1424,16 +1415,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1444,16 +1435,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1464,16 +1455,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1484,16 +1475,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1504,16 +1495,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1524,16 +1515,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1544,16 +1535,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1564,16 +1555,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E28" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1584,16 +1575,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1604,16 +1595,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1624,16 +1615,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E31" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1644,16 +1635,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1664,16 +1655,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F33" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1684,16 +1675,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1704,16 +1695,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1724,16 +1715,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1744,16 +1735,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1764,16 +1755,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F38" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1784,16 +1775,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1804,16 +1795,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E40" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1824,16 +1815,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E41" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1844,16 +1835,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1864,16 +1855,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E43" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F43" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1884,16 +1875,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F44" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1904,16 +1895,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F45" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1924,16 +1915,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E46" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F46" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1944,16 +1935,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1964,16 +1955,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F48" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1984,16 +1975,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F49" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2004,16 +1995,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2024,16 +2015,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2044,16 +2035,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2064,16 +2055,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2084,16 +2075,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2104,16 +2095,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E55" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F55" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2124,16 +2115,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F56" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2144,16 +2135,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2164,16 +2155,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E58" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F58" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2184,16 +2175,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E59" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F59" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2204,16 +2195,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F60" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2224,16 +2215,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E61" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F61" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2244,16 +2235,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F62" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2264,16 +2255,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F63" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2284,16 +2275,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F64" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2304,16 +2295,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2324,16 +2315,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E66" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F66" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2344,16 +2335,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F67" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2364,16 +2355,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F68" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2384,16 +2375,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E69" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F69" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2404,16 +2395,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E70" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F70" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2424,16 +2415,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F71" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2444,16 +2435,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E72" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F72" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2464,16 +2455,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E73" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F73" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2484,16 +2475,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="E74" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F74" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2504,16 +2495,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E75" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F75" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2524,16 +2515,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="E76" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F76" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2544,16 +2535,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2564,16 +2555,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E78" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2584,16 +2575,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E79" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F79" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2604,36 +2595,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F80" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" t="s">
-        <v>164</v>
-      </c>
-      <c r="D81" t="s">
-        <v>191</v>
-      </c>
-      <c r="E81" t="s">
-        <v>213</v>
-      </c>
-      <c r="F81" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_lesk_PRICES.xlsx
+++ b/Results/Sentiwordnet/hasil_lesk_PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="208">
   <si>
     <t>id</t>
   </si>
@@ -127,6 +127,9 @@
     <t>1671113:1</t>
   </si>
   <si>
+    <t>1727363:1</t>
+  </si>
+  <si>
     <t>1748813:1</t>
   </si>
   <si>
@@ -208,9 +211,6 @@
     <t>NP#3:6</t>
   </si>
   <si>
-    <t>BzG#2:0</t>
-  </si>
-  <si>
     <t>BzG#2:1</t>
   </si>
   <si>
@@ -223,24 +223,24 @@
     <t>TFS#5:2</t>
   </si>
   <si>
+    <t>TFS#5:21</t>
+  </si>
+  <si>
     <t>TFS#5:30</t>
   </si>
   <si>
-    <t>CLF#3:4</t>
-  </si>
-  <si>
     <t>CLF#3:13</t>
   </si>
   <si>
     <t>CLF#3:23</t>
   </si>
   <si>
-    <t>CLF#3:29</t>
-  </si>
-  <si>
     <t>BG#5:7</t>
   </si>
   <si>
+    <t>BG#8:3</t>
+  </si>
+  <si>
     <t>DBG#7:5</t>
   </si>
   <si>
@@ -364,6 +364,9 @@
     <t>the food is great and reasonably priced.</t>
   </si>
   <si>
+    <t>this is a wonderful place on all stand points especially value ofr money.</t>
+  </si>
+  <si>
     <t>all of the pizzas are terrific and the price is even better!</t>
   </si>
   <si>
@@ -445,9 +448,6 @@
     <t>prices are fair across the board for both food and bev.</t>
   </si>
   <si>
-    <t>great place, great value.</t>
-  </si>
-  <si>
     <t>the food is flavorful, plentiful and reasonably priced.</t>
   </si>
   <si>
@@ -460,24 +460,24 @@
     <t>but $500 for a dinner for two that didn't include wine?</t>
   </si>
   <si>
+    <t>i read reviews that called the restaurant too expensive and i thought to myself, but may be it is worth it.</t>
+  </si>
+  <si>
     <t>service was just ok, it is not what you'd expect for $500.</t>
   </si>
   <si>
-    <t>i literally just got back home after visiting casa la femme and was so offended by my visit felt it necessary to try and warn other diners who value their money and time.</t>
-  </si>
-  <si>
     <t>however, our $14 drinks were were horrible!</t>
   </si>
   <si>
     <t>i would not expect this for a $55 dinner.</t>
   </si>
   <si>
-    <t>if it seemed possible to do so while there i would have fought my bill since my dinner portion of my meal was inedible!</t>
-  </si>
-  <si>
     <t>but if you're prepared to spend some $ and remember to ask if something they offer is complimentary, then this is the place to go for indian food</t>
   </si>
   <si>
+    <t>the lunch buffet is expensive but is deff worth it.</t>
+  </si>
+  <si>
     <t>too bad i had paid an extra $2 for the stone bowl.</t>
   </si>
   <si>
@@ -511,7 +511,7 @@
     <t>well</t>
   </si>
   <si>
-    <t>enough</t>
+    <t>worth</t>
   </si>
   <si>
     <t>fresh</t>
@@ -523,9 +523,6 @@
     <t>large</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>overpriced</t>
   </si>
   <si>
@@ -577,6 +574,9 @@
     <t>reasonably</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
@@ -622,25 +622,16 @@
     <t>ok</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>horrible</t>
   </si>
   <si>
     <t>expect</t>
   </si>
   <si>
-    <t>inedible</t>
-  </si>
-  <si>
     <t>complimentary</t>
   </si>
   <si>
     <t>bad</t>
-  </si>
-  <si>
-    <t>wonderful</t>
   </si>
   <si>
     <t>positive</t>
@@ -1041,10 +1032,10 @@
         <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1061,10 +1052,10 @@
         <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1081,10 +1072,10 @@
         <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1101,10 +1092,10 @@
         <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1121,10 +1112,10 @@
         <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1141,10 +1132,10 @@
         <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1158,13 +1149,13 @@
         <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1178,13 +1169,13 @@
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1198,13 +1189,13 @@
         <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1221,10 +1212,10 @@
         <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1241,10 +1232,10 @@
         <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1258,13 +1249,13 @@
         <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1278,13 +1269,13 @@
         <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1298,13 +1289,13 @@
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1321,10 +1312,10 @@
         <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1338,13 +1329,13 @@
         <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1358,13 +1349,13 @@
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1378,13 +1369,13 @@
         <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1398,13 +1389,13 @@
         <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1418,13 +1409,13 @@
         <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1438,13 +1429,13 @@
         <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1458,13 +1449,13 @@
         <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1478,13 +1469,13 @@
         <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1498,13 +1489,13 @@
         <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1518,13 +1509,13 @@
         <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1538,13 +1529,13 @@
         <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1558,13 +1549,13 @@
         <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1578,13 +1569,13 @@
         <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1598,13 +1589,13 @@
         <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1618,13 +1609,13 @@
         <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1638,13 +1629,13 @@
         <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1658,13 +1649,13 @@
         <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F33" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1678,13 +1669,13 @@
         <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1698,13 +1689,13 @@
         <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1721,10 +1712,10 @@
         <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1738,13 +1729,13 @@
         <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1758,13 +1749,13 @@
         <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1778,13 +1769,13 @@
         <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F39" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1798,13 +1789,13 @@
         <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1818,13 +1809,13 @@
         <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="E41" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1838,13 +1829,13 @@
         <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1858,13 +1849,13 @@
         <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F43" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1878,13 +1869,13 @@
         <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1898,13 +1889,13 @@
         <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F45" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1918,13 +1909,13 @@
         <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1938,13 +1929,13 @@
         <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1958,13 +1949,13 @@
         <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F48" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1978,13 +1969,13 @@
         <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F49" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1998,13 +1989,13 @@
         <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F50" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2018,13 +2009,13 @@
         <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F51" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2038,13 +2029,13 @@
         <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2058,13 +2049,13 @@
         <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F53" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2078,13 +2069,13 @@
         <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F54" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2098,13 +2089,13 @@
         <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2118,13 +2109,13 @@
         <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F56" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2138,13 +2129,13 @@
         <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E57" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F57" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2158,13 +2149,13 @@
         <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E58" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F58" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2178,13 +2169,13 @@
         <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E59" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F59" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2198,13 +2189,13 @@
         <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2218,13 +2209,13 @@
         <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E61" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F61" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2238,13 +2229,13 @@
         <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F62" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2261,10 +2252,10 @@
         <v>199</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F63" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2278,13 +2269,13 @@
         <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E64" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F64" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2301,10 +2292,10 @@
         <v>200</v>
       </c>
       <c r="E65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2318,13 +2309,13 @@
         <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="E66" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F66" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2338,13 +2329,13 @@
         <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E67" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F67" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2358,13 +2349,13 @@
         <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F68" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2378,13 +2369,13 @@
         <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F69" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2398,13 +2389,13 @@
         <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E70" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F70" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2418,13 +2409,13 @@
         <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="E71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F71" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2438,13 +2429,13 @@
         <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2458,13 +2449,13 @@
         <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E73" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F73" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2481,10 +2472,10 @@
         <v>167</v>
       </c>
       <c r="E74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2501,10 +2492,10 @@
         <v>164</v>
       </c>
       <c r="E75" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F75" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2518,13 +2509,13 @@
         <v>158</v>
       </c>
       <c r="D76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E76" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F76" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2541,10 +2532,10 @@
         <v>196</v>
       </c>
       <c r="E77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2561,10 +2552,10 @@
         <v>167</v>
       </c>
       <c r="E78" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F78" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2581,10 +2572,10 @@
         <v>187</v>
       </c>
       <c r="E79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2601,10 +2592,10 @@
         <v>189</v>
       </c>
       <c r="E80" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F80" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_lesk_PRICES.xlsx
+++ b/Results/Sentiwordnet/hasil_lesk_PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="217">
   <si>
     <t>id</t>
   </si>
@@ -160,6 +160,9 @@
     <t>527109:3</t>
   </si>
   <si>
+    <t>565344:1</t>
+  </si>
+  <si>
     <t>584025:2</t>
   </si>
   <si>
@@ -229,12 +232,18 @@
     <t>TFS#5:30</t>
   </si>
   <si>
+    <t>CLF#3:4</t>
+  </si>
+  <si>
     <t>CLF#3:13</t>
   </si>
   <si>
     <t>CLF#3:23</t>
   </si>
   <si>
+    <t>CLF#3:30</t>
+  </si>
+  <si>
     <t>BG#5:7</t>
   </si>
   <si>
@@ -397,6 +406,9 @@
     <t>the wine list is extensive and can easily hike up an otherwise reasonably priced meal.</t>
   </si>
   <si>
+    <t>this little place definitely exceeded my expectations and you sure get a lot of food for your money.</t>
+  </si>
+  <si>
     <t>the food is great and they have a good selecion of wines at reasonable prices.</t>
   </si>
   <si>
@@ -466,12 +478,18 @@
     <t>service was just ok, it is not what you'd expect for $500.</t>
   </si>
   <si>
+    <t>i literally just got back home after visiting casa la femme and was so offended by my visit felt it necessary to try and warn other diners who value their money and time.</t>
+  </si>
+  <si>
     <t>however, our $14 drinks were were horrible!</t>
   </si>
   <si>
     <t>i would not expect this for a $55 dinner.</t>
   </si>
   <si>
+    <t>i have never left a restaurant feeling as if i was abused, and wasted my hard earned money.</t>
+  </si>
+  <si>
     <t>but if you're prepared to spend some $ and remember to ask if something they offer is complimentary, then this is the place to go for indian food</t>
   </si>
   <si>
@@ -589,6 +607,9 @@
     <t>affordable</t>
   </si>
   <si>
+    <t>exceeded</t>
+  </si>
+  <si>
     <t>incredible</t>
   </si>
   <si>
@@ -622,10 +643,16 @@
     <t>ok</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
     <t>expect</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>complimentary</t>
@@ -995,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1026,16 +1053,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1046,16 +1073,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1066,16 +1093,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1086,16 +1113,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1106,16 +1133,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1126,16 +1153,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1146,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1166,16 +1193,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1186,16 +1213,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1206,16 +1233,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1226,16 +1253,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1246,16 +1273,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1266,16 +1293,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1286,16 +1313,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1306,16 +1333,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1326,16 +1353,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F17" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1346,16 +1373,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1366,16 +1393,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1386,16 +1413,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1406,16 +1433,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1426,16 +1453,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1446,16 +1473,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1466,16 +1493,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1486,16 +1513,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1506,16 +1533,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E26" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1526,16 +1553,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E27" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1546,16 +1573,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F28" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1566,16 +1593,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1586,16 +1613,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F30" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1606,16 +1633,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F31" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1626,16 +1653,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1646,16 +1673,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1666,16 +1693,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E34" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F34" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1686,16 +1713,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F35" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1706,16 +1733,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F36" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1726,16 +1753,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E37" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F37" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1746,16 +1773,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F38" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1766,16 +1793,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F39" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1786,16 +1813,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1806,16 +1833,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F41" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1826,16 +1853,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1846,16 +1873,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F43" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1866,16 +1893,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F44" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1886,16 +1913,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F45" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1906,16 +1933,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F46" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1926,16 +1953,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F47" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1946,16 +1973,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F48" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1966,16 +1993,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F49" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1986,16 +2013,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F50" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2006,16 +2033,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F51" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2026,16 +2053,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E52" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F52" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2046,16 +2073,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F53" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2066,16 +2093,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F54" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2086,16 +2113,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E55" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F55" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2106,16 +2133,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F56" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2126,16 +2153,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F57" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2146,16 +2173,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F58" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2166,16 +2193,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E59" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F59" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2186,16 +2213,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E60" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F60" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2206,16 +2233,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E61" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F61" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2226,16 +2253,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F62" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2246,16 +2273,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F63" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2266,16 +2293,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="E64" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F64" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2286,16 +2313,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="E65" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F65" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2306,16 +2333,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="E66" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F66" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2326,16 +2353,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E67" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F67" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2346,16 +2373,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E68" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F68" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2366,16 +2393,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E69" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F69" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2386,16 +2413,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E70" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F70" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2406,16 +2433,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="E71" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F71" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2426,16 +2453,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D72" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E72" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F72" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2446,16 +2473,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="E73" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F73" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2466,16 +2493,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F74" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2486,16 +2513,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D75" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F75" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2506,16 +2533,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F76" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2526,16 +2553,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D77" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="E77" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F77" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2546,16 +2573,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E78" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F78" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2566,16 +2593,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E79" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F79" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2586,16 +2613,76 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E80" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F80" t="s">
-        <v>207</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81" t="s">
+        <v>216</v>
+      </c>
+      <c r="F81" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" t="s">
+        <v>193</v>
+      </c>
+      <c r="E82" t="s">
+        <v>216</v>
+      </c>
+      <c r="F82" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_lesk_PRICES.xlsx
+++ b/Results/Sentiwordnet/hasil_lesk_PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="218">
   <si>
     <t>id</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>predict</t>
+  </si>
+  <si>
+    <t>score</t>
   </si>
   <si>
     <t>1028246:1</t>
@@ -1022,13 +1025,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,1645 +1047,1894 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G3">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G5">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G6">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G10">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G11">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G12">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G14">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G16">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G20">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G21">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G23">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G26">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G28">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G29">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G33">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G34">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G35">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F36" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G37">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G38">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G39">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F40" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E41" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G42">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G43">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F44" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G44">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F45" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G45">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F46" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G46">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G48">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G49">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E50" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F50" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F52" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F53" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F54" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G54">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F55" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F56" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F57" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G57">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F58" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G58">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F59" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G59">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F60" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G61">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E62" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F62" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G62">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F63" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G63">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E64" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F64" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G64">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F65" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G65">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F66" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F67" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F68" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G68">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F69" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F70" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G70">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F71" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G71">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F72" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D73" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F73" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F74" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E75" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F75" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G75">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F76" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G76">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D77" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F77" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G77">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F78" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G78">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F79" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G79">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F80" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F81" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F82" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D83" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F83" t="s">
         <v>216</v>
+      </c>
+      <c r="G83">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_lesk_PRICES.xlsx
+++ b/Results/Sentiwordnet/hasil_lesk_PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="219">
   <si>
     <t>id</t>
   </si>
@@ -142,6 +142,9 @@
     <t>454704:2</t>
   </si>
   <si>
+    <t>475512:3</t>
+  </si>
+  <si>
     <t>490565:4</t>
   </si>
   <si>
@@ -163,9 +166,6 @@
     <t>527109:3</t>
   </si>
   <si>
-    <t>565344:1</t>
-  </si>
-  <si>
     <t>584025:2</t>
   </si>
   <si>
@@ -235,18 +235,12 @@
     <t>TFS#5:30</t>
   </si>
   <si>
-    <t>CLF#3:4</t>
-  </si>
-  <si>
     <t>CLF#3:13</t>
   </si>
   <si>
     <t>CLF#3:23</t>
   </si>
   <si>
-    <t>CLF#3:30</t>
-  </si>
-  <si>
     <t>BG#5:7</t>
   </si>
   <si>
@@ -388,6 +382,9 @@
     <t>this place is not worth the prices.</t>
   </si>
   <si>
+    <t>if you like your music blasted and the system isnt that great and if you want to pay at least 100 dollar bottle minimun then you'll love it here.</t>
+  </si>
+  <si>
     <t>you can get a completely delish martini in a glass (that's about 2 1/2 drinks) for $8.50 (i recommend the vanilla shanty, mmmm!) in a great homey setting with great music.</t>
   </si>
   <si>
@@ -409,9 +406,6 @@
     <t>the wine list is extensive and can easily hike up an otherwise reasonably priced meal.</t>
   </si>
   <si>
-    <t>this little place definitely exceeded my expectations and you sure get a lot of food for your money.</t>
-  </si>
-  <si>
     <t>the food is great and they have a good selecion of wines at reasonable prices.</t>
   </si>
   <si>
@@ -481,18 +475,12 @@
     <t>service was just ok, it is not what you'd expect for $500.</t>
   </si>
   <si>
-    <t>i literally just got back home after visiting casa la femme and was so offended by my visit felt it necessary to try and warn other diners who value their money and time.</t>
-  </si>
-  <si>
     <t>however, our $14 drinks were were horrible!</t>
   </si>
   <si>
     <t>i would not expect this for a $55 dinner.</t>
   </si>
   <si>
-    <t>i have never left a restaurant feeling as if i was abused, and wasted my hard earned money.</t>
-  </si>
-  <si>
     <t>but if you're prepared to spend some $ and remember to ask if something they offer is complimentary, then this is the place to go for indian food</t>
   </si>
   <si>
@@ -529,139 +517,154 @@
     <t>beat</t>
   </si>
   <si>
-    <t>well</t>
+    <t>worth|worth|worth</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>reasonable|reasonable</t>
+  </si>
+  <si>
+    <t>large|large</t>
+  </si>
+  <si>
+    <t>great|great</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>welll</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>reasonable|reasonable|reasonable</t>
+  </si>
+  <si>
+    <t>best|best</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>average|average</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>mortal</t>
+  </si>
+  <si>
+    <t>pricey|worth|pricey|worth|worth|worth</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>indian</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>enough|good</t>
+  </si>
+  <si>
+    <t>extensive</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>terrific</t>
+  </si>
+  <si>
+    <t>tasteless</t>
+  </si>
+  <si>
+    <t>worth|worth</t>
+  </si>
+  <si>
+    <t>delish</t>
+  </si>
+  <si>
+    <t>pricey|worth</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>great|pricey</t>
+  </si>
+  <si>
+    <t>overpriced</t>
   </si>
   <si>
     <t>reasonable</t>
   </si>
   <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>overpriced</t>
-  </si>
-  <si>
-    <t>fairly</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>priced</t>
-  </si>
-  <si>
-    <t>cramped</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>mortal</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>authentic</t>
-  </si>
-  <si>
-    <t>only</t>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>affordable|great|good|affordable</t>
+  </si>
+  <si>
+    <t>pricey</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>bargain</t>
-  </si>
-  <si>
-    <t>extensive</t>
-  </si>
-  <si>
-    <t>reasonably</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>pricey</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>exceeded</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>speedy</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>eat</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
     <t>bland</t>
   </si>
   <si>
-    <t>told</t>
-  </si>
-  <si>
     <t>fair</t>
   </si>
   <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>didnt</t>
+    <t>plentiful</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>horrible</t>
   </si>
   <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>complimentary</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>deff</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>horrible|horrible</t>
+  </si>
+  <si>
+    <t>fishy</t>
+  </si>
+  <si>
+    <t>least</t>
   </si>
   <si>
     <t>positive</t>
@@ -1025,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1059,16 +1062,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1082,19 +1085,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G3">
-        <v>0.667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1105,16 +1108,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1128,19 +1131,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G5">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1151,19 +1154,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G6">
-        <v>-0.125</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1174,19 +1177,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1197,19 +1200,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
         <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F8" t="s">
         <v>217</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1220,19 +1223,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1243,19 +1246,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G10">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1266,19 +1269,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G11">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1289,19 +1292,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G12">
-        <v>-0.125</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1312,19 +1315,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1335,19 +1338,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G14">
-        <v>-0.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1358,19 +1361,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1381,19 +1384,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G16">
-        <v>-0.125</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1404,16 +1407,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1427,16 +1430,13 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1450,19 +1450,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1473,16 +1473,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G20">
         <v>-0.25</v>
@@ -1496,16 +1496,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G21">
         <v>-0.625</v>
@@ -1519,19 +1519,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G22">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1542,16 +1542,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G23">
         <v>-0.25</v>
@@ -1565,16 +1565,16 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G24">
         <v>0.25</v>
@@ -1588,19 +1588,16 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G25">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1611,19 +1608,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G26">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1634,16 +1631,16 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1657,19 +1654,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G28">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1680,19 +1677,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G29">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1703,19 +1700,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G30">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1726,16 +1723,16 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1749,16 +1746,16 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G32">
         <v>0.25</v>
@@ -1772,19 +1769,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F33" t="s">
         <v>217</v>
       </c>
       <c r="G33">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1795,16 +1792,16 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G34">
         <v>0.75</v>
@@ -1818,19 +1815,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G35">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1841,19 +1838,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G36">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1864,19 +1861,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G37">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1887,19 +1884,16 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G38">
-        <v>0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1910,19 +1904,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G39">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1933,19 +1927,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s">
         <v>217</v>
       </c>
       <c r="F40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G40">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1956,19 +1950,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F41" t="s">
         <v>217</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1979,19 +1973,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
         <v>217</v>
       </c>
       <c r="F42" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G42">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2002,19 +1996,19 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G43">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2025,19 +2019,19 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
         <v>217</v>
       </c>
       <c r="G44">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2048,19 +2042,19 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G45">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2071,19 +2065,19 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G46">
-        <v>-0.125</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2094,19 +2088,19 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G47">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2117,16 +2111,16 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G48">
         <v>0.25</v>
@@ -2140,16 +2134,16 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G49">
         <v>-0.125</v>
@@ -2163,16 +2157,16 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
         <v>199</v>
       </c>
       <c r="E50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2186,19 +2180,19 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
         <v>200</v>
       </c>
       <c r="E51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G51">
-        <v>0.5</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2209,16 +2203,13 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2232,16 +2223,16 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G53">
         <v>0.5</v>
@@ -2255,19 +2246,19 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G54">
-        <v>-0.125</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2278,16 +2269,13 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2301,19 +2289,19 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G56">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2324,16 +2312,16 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G57">
         <v>0.75</v>
@@ -2347,19 +2335,19 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G58">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2370,19 +2358,16 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G59">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2393,16 +2378,16 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G60">
         <v>0.625</v>
@@ -2416,19 +2401,16 @@
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G61">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2439,16 +2421,16 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G62">
         <v>-0.125</v>
@@ -2462,19 +2444,19 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F63" t="s">
         <v>217</v>
       </c>
       <c r="G63">
-        <v>-0.25</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2485,19 +2467,19 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="E64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F64" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G64">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2508,16 +2490,16 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="E65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G65">
         <v>-0.25</v>
@@ -2531,16 +2513,13 @@
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2554,16 +2533,16 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2577,16 +2556,16 @@
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G68">
         <v>0.375</v>
@@ -2600,19 +2579,19 @@
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2623,19 +2602,16 @@
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
-      </c>
-      <c r="D70" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G70">
-        <v>-0.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2646,19 +2622,19 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D71" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G71">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2669,16 +2645,16 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D72" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2692,16 +2668,16 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2715,19 +2691,19 @@
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="E74" t="s">
         <v>217</v>
       </c>
       <c r="F74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2738,19 +2714,19 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E75" t="s">
         <v>217</v>
       </c>
       <c r="F75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G75">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2761,19 +2737,19 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="E76" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F76" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G76">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2784,19 +2760,19 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E77" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G77">
-        <v>-0.125</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2807,19 +2783,19 @@
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D78" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="E78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F78" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G78">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2830,19 +2806,19 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G79">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2853,19 +2829,19 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D80" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F80" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G80">
-        <v>0.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2876,64 +2852,18 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="E81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G81">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>168</v>
-      </c>
-      <c r="D82" t="s">
-        <v>194</v>
-      </c>
-      <c r="E82" t="s">
-        <v>217</v>
-      </c>
-      <c r="F82" t="s">
-        <v>217</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" t="s">
-        <v>196</v>
-      </c>
-      <c r="E83" t="s">
-        <v>217</v>
-      </c>
-      <c r="F83" t="s">
-        <v>216</v>
-      </c>
-      <c r="G83">
         <v>0.5</v>
       </c>
     </row>
